--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,421 +64,463 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.872+/-0.003</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.849+/-0.003</t>
-  </si>
-  <si>
-    <t>0.791+/-0.014</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.906+/-0.004</t>
-  </si>
-  <si>
-    <t>0.837+/-0.017</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>8.683+/-0.837</t>
-  </si>
-  <si>
-    <t>0.767+/-0.003</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.764+/-0.004</t>
-  </si>
-  <si>
-    <t>0.751+/-0.014</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.772+/-0.005</t>
-  </si>
-  <si>
-    <t>0.761+/-0.02</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>2.078+/-0.052</t>
-  </si>
-  <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>0.896+/-0.003</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.871+/-0.002</t>
+  </si>
+  <si>
+    <t>0.81+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.851+/-0.002</t>
+  </si>
+  <si>
+    <t>0.795+/-0.011</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.901+/-0.004</t>
+  </si>
+  <si>
+    <t>0.837+/-0.012</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>10.251+/-0.138</t>
+  </si>
+  <si>
+    <t>0.78+/-0.002</t>
+  </si>
+  <si>
+    <t>0.772+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.786+/-0.002</t>
+  </si>
+  <si>
+    <t>0.779+/-0.012</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.769+/-0.005</t>
+  </si>
+  <si>
+    <t>0.76+/-0.021</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>1.99+/-0.036</t>
+  </si>
+  <si>
+    <t>0.877+/-0.002</t>
+  </si>
+  <si>
+    <t>0.856+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.918+/-0.004</t>
+  </si>
+  <si>
+    <t>0.894+/-0.017</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.828+/-0.002</t>
+  </si>
+  <si>
+    <t>0.808+/-0.016</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>8.106+/-0.176</t>
+  </si>
+  <si>
+    <t>0.74+/-0.005</t>
+  </si>
+  <si>
+    <t>0.715+/-0.0</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.73+/-0.009</t>
+  </si>
+  <si>
+    <t>0.705+/-0.016</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.762+/-0.011</t>
+  </si>
+  <si>
+    <t>0.74+/-0.013</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.797+/-0.023</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.894+/-0.002</t>
+  </si>
+  <si>
+    <t>0.847+/-0.0</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.871+/-0.003</t>
+  </si>
+  <si>
+    <t>0.826+/-0.012</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.925+/-0.002</t>
+  </si>
+  <si>
+    <t>0.879+/-0.015</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>10.346+/-0.124</t>
+  </si>
+  <si>
+    <t>0.804+/-0.002</t>
+  </si>
+  <si>
+    <t>0.797+/-0.0</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.81+/-0.002</t>
+  </si>
+  <si>
+    <t>0.802+/-0.014</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.794+/-0.006</t>
+  </si>
+  <si>
+    <t>0.788+/-0.017</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>2.141+/-0.041</t>
+  </si>
+  <si>
+    <t>0.903+/-0.002</t>
+  </si>
+  <si>
+    <t>0.885+/-0.0</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.933+/-0.003</t>
+  </si>
+  <si>
+    <t>0.914+/-0.012</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.868+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849+/-0.013</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>8.922+/-0.063</t>
+  </si>
+  <si>
+    <t>0.762+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.762+/-0.004</t>
+  </si>
+  <si>
+    <t>0.737+/-0.013</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.762+/-0.006</t>
+  </si>
+  <si>
+    <t>0.739+/-0.022</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.835+/-0.027</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.885+/-0.001</t>
+  </si>
+  <si>
+    <t>0.769+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.916+/-0.003</t>
+  </si>
+  <si>
+    <t>0.797+/-0.019</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.848+/-0.003</t>
+  </si>
+  <si>
+    <t>0.722+/-0.018</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>8.907+/-0.079</t>
+  </si>
+  <si>
+    <t>0.713+/-0.005</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.74+/-0.006</t>
+  </si>
+  <si>
+    <t>0.722+/-0.023</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.658+/-0.008</t>
+  </si>
+  <si>
+    <t>0.644+/-0.02</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>1.672+/-0.025</t>
+  </si>
+  <si>
+    <t>0.819+/-0.002</t>
+  </si>
+  <si>
+    <t>0.784+/-0.0</t>
+  </si>
+  <si>
+    <t>0.915+/-0.003</t>
   </si>
   <si>
     <t>0.872+/-0.014</t>
   </si>
   <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.705+/-0.004</t>
+  </si>
+  <si>
+    <t>0.665+/-0.02</t>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t>7.027+/-0.223</t>
+  </si>
+  <si>
+    <t>0.695+/-0.003</t>
+  </si>
+  <si>
+    <t>0.646+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.685+/-0.004</t>
+  </si>
+  <si>
+    <t>0.636+/-0.014</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.725+/-0.005</t>
+  </si>
+  <si>
+    <t>0.68+/-0.021</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.788+/-0.053</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.865+/-0.002</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.888+/-0.004</t>
+  </si>
+  <si>
+    <t>0.754+/-0.016</t>
+  </si>
+  <si>
     <t>0.432</t>
   </si>
   <si>
-    <t>0.835+/-0.003</t>
-  </si>
-  <si>
-    <t>0.81+/-0.017</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>8.188+/-0.487</t>
-  </si>
-  <si>
-    <t>0.73+/-0.002</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.724+/-0.003</t>
-  </si>
-  <si>
-    <t>0.7+/-0.011</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.742+/-0.006</t>
-  </si>
-  <si>
-    <t>0.723+/-0.017</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.718+/-0.027</t>
-  </si>
-  <si>
-    <t>0.895+/-0.002</t>
-  </si>
-  <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.765</t>
-  </si>
-  <si>
-    <t>0.874+/-0.003</t>
-  </si>
-  <si>
-    <t>0.829+/-0.012</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.923+/-0.002</t>
-  </si>
-  <si>
-    <t>0.874+/-0.011</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>10.309+/-0.157</t>
-  </si>
-  <si>
-    <t>0.806+/-0.003</t>
-  </si>
-  <si>
-    <t>0.796+/-0.0</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.813+/-0.004</t>
-  </si>
-  <si>
-    <t>0.804+/-0.013</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.795+/-0.008</t>
-  </si>
-  <si>
-    <t>0.783+/-0.012</t>
-  </si>
-  <si>
-    <t>2.17+/-0.13</t>
-  </si>
-  <si>
-    <t>0.903+/-0.002</t>
-  </si>
-  <si>
-    <t>0.882+/-0.0</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.934+/-0.003</t>
-  </si>
-  <si>
-    <t>0.913+/-0.008</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>0.867+/-0.003</t>
-  </si>
-  <si>
-    <t>0.845+/-0.013</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>9.012+/-0.213</t>
-  </si>
-  <si>
-    <t>0.756+/-0.003</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.761+/-0.005</t>
-  </si>
-  <si>
-    <t>0.735+/-0.012</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.748+/-0.008</t>
-  </si>
-  <si>
-    <t>0.726+/-0.018</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.89+/-0.12</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.905+/-0.005</t>
-  </si>
-  <si>
-    <t>0.789+/-0.018</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.837+/-0.005</t>
-  </si>
-  <si>
-    <t>0.711+/-0.018</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>7.717+/-0.216</t>
-  </si>
-  <si>
-    <t>0.706+/-0.003</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.735+/-0.003</t>
-  </si>
-  <si>
-    <t>0.721+/-0.021</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.644+/-0.009</t>
-  </si>
-  <si>
-    <t>0.637+/-0.03</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>1.654+/-0.05</t>
-  </si>
-  <si>
-    <t>0.816+/-0.002</t>
-  </si>
-  <si>
-    <t>0.781+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.912+/-0.004</t>
-  </si>
-  <si>
-    <t>0.868+/-0.013</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.7+/-0.003</t>
-  </si>
-  <si>
-    <t>0.664+/-0.025</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>7.2+/-0.401</t>
-  </si>
-  <si>
-    <t>0.689+/-0.004</t>
-  </si>
-  <si>
-    <t>0.643+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.68+/-0.004</t>
-  </si>
-  <si>
-    <t>0.636+/-0.013</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.716+/-0.009</t>
-  </si>
-  <si>
-    <t>0.668+/-0.026</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.736+/-0.101</t>
-  </si>
-  <si>
-    <t>0.859+/-0.003</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.891+/-0.005</t>
-  </si>
-  <si>
-    <t>0.764+/-0.019</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.818+/-0.004</t>
-  </si>
-  <si>
-    <t>0.677+/-0.02</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>10.12+/-0.588</t>
-  </si>
-  <si>
-    <t>0.695+/-0.003</t>
-  </si>
-  <si>
-    <t>0.683+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.726+/-0.005</t>
-  </si>
-  <si>
-    <t>0.71+/-0.016</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.628+/-0.006</t>
-  </si>
-  <si>
-    <t>0.616+/-0.023</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>1.678+/-0.025</t>
-  </si>
-  <si>
-    <t>0.798+/-0.001</t>
+    <t>0.834+/-0.004</t>
+  </si>
+  <si>
+    <t>0.696+/-0.014</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>8.382+/-0.15</t>
+  </si>
+  <si>
+    <t>0.693+/-0.002</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.721+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.015</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.63+/-0.005</t>
+  </si>
+  <si>
+    <t>0.612+/-0.021</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>1.622+/-0.025</t>
+  </si>
+  <si>
+    <t>0.8+/-0.003</t>
   </si>
   <si>
     <t>0.753+/-0.0</t>
@@ -487,55 +529,52 @@
     <t>0.688</t>
   </si>
   <si>
-    <t>0.9+/-0.005</t>
-  </si>
-  <si>
-    <t>0.843+/-0.013</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.672+/-0.004</t>
-  </si>
-  <si>
-    <t>0.623+/-0.024</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>7.035+/-0.081</t>
-  </si>
-  <si>
-    <t>0.686+/-0.005</t>
-  </si>
-  <si>
-    <t>0.626+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.675+/-0.007</t>
-  </si>
-  <si>
-    <t>0.619+/-0.013</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.718+/-0.007</t>
-  </si>
-  <si>
-    <t>0.655+/-0.018</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.941+/-0.104</t>
+    <t>0.9+/-0.007</t>
+  </si>
+  <si>
+    <t>0.84+/-0.015</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.675+/-0.005</t>
+  </si>
+  <si>
+    <t>0.625+/-0.026</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>6.896+/-0.062</t>
+  </si>
+  <si>
+    <t>0.683+/-0.004</t>
+  </si>
+  <si>
+    <t>0.62+/-0.0</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.67+/-0.005</t>
+  </si>
+  <si>
+    <t>0.612+/-0.016</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.724+/-0.009</t>
+  </si>
+  <si>
+    <t>0.656+/-0.021</t>
+  </si>
+  <si>
+    <t>0.712+/-0.032</t>
   </si>
 </sst>
 </file>
@@ -924,16 +963,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -941,19 +980,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -961,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -981,19 +1020,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,19 +1040,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1021,19 +1060,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,19 +1080,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1061,19 +1100,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1081,19 +1120,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1101,19 +1140,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1151,19 +1190,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1171,19 +1210,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1191,19 +1230,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1211,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1231,19 +1270,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1251,19 +1290,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1271,19 +1310,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1291,19 +1330,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1311,19 +1350,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1331,19 +1370,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1381,19 +1420,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1401,19 +1440,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1421,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1441,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1461,19 +1500,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1481,19 +1520,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1501,19 +1540,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1521,19 +1560,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1541,19 +1580,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1561,19 +1600,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1611,19 +1650,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1631,19 +1670,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1651,19 +1690,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1671,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1691,19 +1730,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1711,19 +1750,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1731,19 +1770,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1751,19 +1790,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1771,19 +1810,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1791,19 +1830,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -79,502 +79,502 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.858+/-0.004</t>
+  </si>
+  <si>
+    <t>0.798+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.834+/-0.003</t>
+  </si>
+  <si>
+    <t>0.781+/-0.014</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.894+/-0.007</t>
+  </si>
+  <si>
+    <t>0.829+/-0.013</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>9.763+/-0.053</t>
+  </si>
+  <si>
+    <t>0.764+/-0.002</t>
+  </si>
+  <si>
+    <t>0.758+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.761+/-0.003</t>
+  </si>
+  <si>
+    <t>0.754+/-0.012</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.771+/-0.003</t>
+  </si>
+  <si>
+    <t>0.767+/-0.015</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>1.844+/-0.009</t>
+  </si>
+  <si>
+    <t>0.869+/-0.002</t>
+  </si>
+  <si>
+    <t>0.843+/-0.0</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.895+/-0.003</t>
+  </si>
+  <si>
+    <t>0.871+/-0.015</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.835+/-0.002</t>
+  </si>
+  <si>
+    <t>0.806+/-0.016</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>7.5+/-0.031</t>
+  </si>
+  <si>
+    <t>0.736+/-0.003</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.72+/-0.005</t>
+  </si>
+  <si>
+    <t>0.696+/-0.013</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.772+/-0.004</t>
+  </si>
+  <si>
+    <t>0.749+/-0.013</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.809+/-0.012</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.871+/-0.002</t>
-  </si>
-  <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.851+/-0.002</t>
-  </si>
-  <si>
-    <t>0.795+/-0.011</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.901+/-0.004</t>
-  </si>
-  <si>
-    <t>0.837+/-0.012</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>10.251+/-0.138</t>
-  </si>
-  <si>
-    <t>0.78+/-0.002</t>
-  </si>
-  <si>
-    <t>0.772+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.786+/-0.002</t>
-  </si>
-  <si>
-    <t>0.779+/-0.012</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.769+/-0.005</t>
-  </si>
-  <si>
-    <t>0.76+/-0.021</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>1.99+/-0.036</t>
+    <t>0.894+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.0</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.869+/-0.004</t>
+  </si>
+  <si>
+    <t>0.823+/-0.011</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.928+/-0.002</t>
+  </si>
+  <si>
+    <t>0.882+/-0.007</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>10.366+/-0.046</t>
+  </si>
+  <si>
+    <t>0.809+/-0.002</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.818+/-0.003</t>
+  </si>
+  <si>
+    <t>0.808+/-0.012</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.794+/-0.004</t>
+  </si>
+  <si>
+    <t>0.786+/-0.011</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>2.108+/-0.022</t>
+  </si>
+  <si>
+    <t>0.904+/-0.002</t>
+  </si>
+  <si>
+    <t>0.886+/-0.0</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>0.936+/-0.002</t>
+  </si>
+  <si>
+    <t>0.918+/-0.007</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.868+/-0.003</t>
+  </si>
+  <si>
+    <t>0.847+/-0.01</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>8.347+/-0.056</t>
+  </si>
+  <si>
+    <t>0.756+/-0.004</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.752+/-0.005</t>
+  </si>
+  <si>
+    <t>0.729+/-0.016</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.763+/-0.008</t>
+  </si>
+  <si>
+    <t>0.738+/-0.007</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>0.788+/-0.009</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
   </si>
   <si>
     <t>0.877+/-0.002</t>
   </si>
   <si>
-    <t>0.856+/-0.0</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.918+/-0.004</t>
-  </si>
-  <si>
-    <t>0.894+/-0.017</t>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.907+/-0.004</t>
+  </si>
+  <si>
+    <t>0.788+/-0.02</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.84+/-0.005</t>
+  </si>
+  <si>
+    <t>0.712+/-0.023</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>6.934+/-0.041</t>
+  </si>
+  <si>
+    <t>0.707+/-0.004</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.737+/-0.006</t>
+  </si>
+  <si>
+    <t>0.72+/-0.021</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.645+/-0.005</t>
+  </si>
+  <si>
+    <t>0.632+/-0.025</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>1.499+/-0.01</t>
+  </si>
+  <si>
+    <t>0.819+/-0.002</t>
+  </si>
+  <si>
+    <t>0.784+/-0.0</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.914+/-0.004</t>
+  </si>
+  <si>
+    <t>0.873+/-0.008</t>
   </si>
   <si>
     <t>0.471</t>
   </si>
   <si>
-    <t>0.828+/-0.002</t>
-  </si>
-  <si>
-    <t>0.808+/-0.016</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>8.106+/-0.176</t>
-  </si>
-  <si>
-    <t>0.74+/-0.005</t>
-  </si>
-  <si>
-    <t>0.715+/-0.0</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.73+/-0.009</t>
-  </si>
-  <si>
-    <t>0.705+/-0.016</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.762+/-0.011</t>
-  </si>
-  <si>
-    <t>0.74+/-0.013</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.797+/-0.023</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.894+/-0.002</t>
-  </si>
-  <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.871+/-0.003</t>
-  </si>
-  <si>
-    <t>0.826+/-0.012</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.925+/-0.002</t>
-  </si>
-  <si>
-    <t>0.879+/-0.015</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>10.346+/-0.124</t>
-  </si>
-  <si>
-    <t>0.804+/-0.002</t>
-  </si>
-  <si>
-    <t>0.797+/-0.0</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.81+/-0.002</t>
-  </si>
-  <si>
-    <t>0.802+/-0.014</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.794+/-0.006</t>
-  </si>
-  <si>
-    <t>0.788+/-0.017</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>2.141+/-0.041</t>
-  </si>
-  <si>
-    <t>0.903+/-0.002</t>
-  </si>
-  <si>
-    <t>0.885+/-0.0</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.933+/-0.003</t>
-  </si>
-  <si>
-    <t>0.914+/-0.012</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.868+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849+/-0.013</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>8.922+/-0.063</t>
-  </si>
-  <si>
-    <t>0.762+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
+    <t>0.705+/-0.003</t>
+  </si>
+  <si>
+    <t>0.665+/-0.02</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>6.251+/-0.025</t>
+  </si>
+  <si>
+    <t>0.683+/-0.003</t>
+  </si>
+  <si>
+    <t>0.637+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.68+/-0.003</t>
+  </si>
+  <si>
+    <t>0.634+/-0.014</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.689+/-0.007</t>
+  </si>
+  <si>
+    <t>0.646+/-0.022</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.612+/-0.019</t>
   </si>
   <si>
     <t>0.692</t>
   </si>
   <si>
-    <t>0.762+/-0.004</t>
-  </si>
-  <si>
-    <t>0.737+/-0.013</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.762+/-0.006</t>
-  </si>
-  <si>
-    <t>0.739+/-0.022</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.835+/-0.027</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.885+/-0.001</t>
-  </si>
-  <si>
-    <t>0.769+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.916+/-0.003</t>
-  </si>
-  <si>
-    <t>0.797+/-0.019</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.848+/-0.003</t>
-  </si>
-  <si>
-    <t>0.722+/-0.018</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>8.907+/-0.079</t>
-  </si>
-  <si>
-    <t>0.713+/-0.005</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.74+/-0.006</t>
-  </si>
-  <si>
-    <t>0.722+/-0.023</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.658+/-0.008</t>
-  </si>
-  <si>
-    <t>0.644+/-0.02</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>1.672+/-0.025</t>
-  </si>
-  <si>
-    <t>0.819+/-0.002</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.915+/-0.003</t>
-  </si>
-  <si>
-    <t>0.872+/-0.014</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.705+/-0.004</t>
-  </si>
-  <si>
-    <t>0.665+/-0.02</t>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t>7.027+/-0.223</t>
-  </si>
-  <si>
-    <t>0.695+/-0.003</t>
-  </si>
-  <si>
-    <t>0.646+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.685+/-0.004</t>
-  </si>
-  <si>
-    <t>0.636+/-0.014</t>
-  </si>
-  <si>
-    <t>0.367</t>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.876+/-0.007</t>
+  </si>
+  <si>
+    <t>0.746+/-0.014</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.835+/-0.003</t>
+  </si>
+  <si>
+    <t>0.697+/-0.019</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>7.897+/-0.124</t>
+  </si>
+  <si>
+    <t>0.693+/-0.004</t>
+  </si>
+  <si>
+    <t>0.677+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
   </si>
   <si>
     <t>0.725+/-0.005</t>
   </si>
   <si>
-    <t>0.68+/-0.021</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.788+/-0.053</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.865+/-0.002</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.888+/-0.004</t>
-  </si>
-  <si>
-    <t>0.754+/-0.016</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.834+/-0.004</t>
-  </si>
-  <si>
-    <t>0.696+/-0.014</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>8.382+/-0.15</t>
-  </si>
-  <si>
-    <t>0.693+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.721+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.015</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.63+/-0.005</t>
-  </si>
-  <si>
-    <t>0.612+/-0.021</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>1.622+/-0.025</t>
+    <t>0.705+/-0.02</t>
+  </si>
+  <si>
+    <t>0.623+/-0.008</t>
+  </si>
+  <si>
+    <t>0.61+/-0.023</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>1.517+/-0.011</t>
   </si>
   <si>
     <t>0.8+/-0.003</t>
   </si>
   <si>
-    <t>0.753+/-0.0</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.9+/-0.007</t>
-  </si>
-  <si>
-    <t>0.84+/-0.015</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.675+/-0.005</t>
-  </si>
-  <si>
-    <t>0.625+/-0.026</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>6.896+/-0.062</t>
-  </si>
-  <si>
-    <t>0.683+/-0.004</t>
-  </si>
-  <si>
-    <t>0.62+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.67+/-0.005</t>
-  </si>
-  <si>
-    <t>0.612+/-0.016</t>
-  </si>
-  <si>
-    <t>0.383</t>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.903+/-0.005</t>
+  </si>
+  <si>
+    <t>0.844+/-0.016</t>
+  </si>
+  <si>
+    <t>0.468</t>
+  </si>
+  <si>
+    <t>0.671+/-0.005</t>
+  </si>
+  <si>
+    <t>0.624+/-0.028</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>6.367+/-0.024</t>
+  </si>
+  <si>
+    <t>0.685+/-0.005</t>
+  </si>
+  <si>
+    <t>0.627+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.618+/-0.014</t>
+  </si>
+  <si>
+    <t>0.386</t>
   </si>
   <si>
     <t>0.724+/-0.009</t>
   </si>
   <si>
-    <t>0.656+/-0.021</t>
-  </si>
-  <si>
-    <t>0.712+/-0.032</t>
+    <t>0.665+/-0.022</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.699+/-0.036</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1432,7 @@
         <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1452,7 +1452,7 @@
         <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1469,10 +1469,10 @@
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1489,10 +1489,10 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1509,10 +1509,10 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1529,10 +1529,10 @@
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1549,10 +1549,10 @@
         <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1569,10 +1569,10 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1589,10 +1589,10 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1600,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -1609,10 +1609,10 @@
         <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1653,10 +1653,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>167</v>
@@ -1673,10 +1673,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>168</v>
@@ -1690,13 +1690,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
         <v>169</v>
@@ -1710,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +1730,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
         <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1753,16 +1753,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,10 +1770,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
         <v>163</v>
@@ -1782,7 +1782,7 @@
         <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,10 +1790,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
         <v>164</v>
@@ -1802,7 +1802,7 @@
         <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
         <v>165</v>
@@ -1822,7 +1822,7 @@
         <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,10 +1830,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
         <v>166</v>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="234">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,520 +61,664 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.002</t>
+  </si>
+  <si>
+    <t>0.866+/-0.007</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.843+/-0.006</t>
+  </si>
+  <si>
+    <t>0.387+/-0.024</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.899+/-0.009</t>
+  </si>
+  <si>
+    <t>0.567+/-0.043</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.945+/-0.002</t>
+  </si>
+  <si>
+    <t>0.747+/-0.023</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>12.922+/-0.331</t>
+  </si>
+  <si>
+    <t>0.767+/-0.004</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.763+/-0.004</t>
+  </si>
+  <si>
+    <t>0.353+/-0.027</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.774+/-0.007</t>
+  </si>
+  <si>
+    <t>0.547+/-0.063</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.848+/-0.003</t>
+  </si>
+  <si>
+    <t>0.716+/-0.032</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>2.711+/-0.046</t>
+  </si>
+  <si>
+    <t>0.871+/-0.002</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.897+/-0.003</t>
+  </si>
+  <si>
+    <t>0.454+/-0.036</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.838+/-0.003</t>
+  </si>
+  <si>
+    <t>0.397+/-0.046</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.942+/-0.002</t>
+  </si>
+  <si>
+    <t>0.739+/-0.034</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>10.824+/-0.148</t>
+  </si>
+  <si>
+    <t>0.731+/-0.004</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.719+/-0.009</t>
+  </si>
+  <si>
+    <t>0.33+/-0.021</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>0.758+/-0.012</t>
+  </si>
+  <si>
+    <t>0.629+/-0.053</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.811+/-0.002</t>
+  </si>
+  <si>
+    <t>0.723+/-0.024</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>1.277+/-0.024</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.858+/-0.004</t>
-  </si>
-  <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.834+/-0.003</t>
-  </si>
-  <si>
-    <t>0.781+/-0.014</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.894+/-0.007</t>
-  </si>
-  <si>
-    <t>0.829+/-0.013</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>9.763+/-0.053</t>
-  </si>
-  <si>
-    <t>0.764+/-0.002</t>
-  </si>
-  <si>
-    <t>0.758+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.761+/-0.003</t>
-  </si>
-  <si>
-    <t>0.754+/-0.012</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.771+/-0.003</t>
-  </si>
-  <si>
-    <t>0.767+/-0.015</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>1.844+/-0.009</t>
-  </si>
-  <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.895+/-0.003</t>
-  </si>
-  <si>
-    <t>0.871+/-0.015</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.835+/-0.002</t>
-  </si>
-  <si>
-    <t>0.806+/-0.016</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>7.5+/-0.031</t>
-  </si>
-  <si>
-    <t>0.736+/-0.003</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
+    <t>0.897+/-0.004</t>
+  </si>
+  <si>
+    <t>0.772+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.874+/-0.007</t>
+  </si>
+  <si>
+    <t>0.331+/-0.021</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.928+/-0.004</t>
+  </si>
+  <si>
+    <t>0.504+/-0.032</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.965+/-0.002</t>
+  </si>
+  <si>
+    <t>0.753+/-0.016</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>15.901+/-0.111</t>
+  </si>
+  <si>
+    <t>0.809+/-0.004</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.814+/-0.004</t>
+  </si>
+  <si>
+    <t>0.303+/-0.019</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.801+/-0.005</t>
+  </si>
+  <si>
+    <t>0.468+/-0.041</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.892+/-0.002</t>
+  </si>
+  <si>
+    <t>0.72+/-0.016</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>3.338+/-0.049</t>
+  </si>
+  <si>
+    <t>0.904+/-0.002</t>
+  </si>
+  <si>
+    <t>0.833+/-0.0</t>
+  </si>
+  <si>
+    <t>0.935+/-0.004</t>
+  </si>
+  <si>
+    <t>0.428+/-0.035</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.868+/-0.004</t>
+  </si>
+  <si>
+    <t>0.337+/-0.026</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.962+/-0.001</t>
+  </si>
+  <si>
+    <t>0.748+/-0.014</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>13.449+/-0.167</t>
+  </si>
+  <si>
+    <t>0.761+/-0.007</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.766+/-0.007</t>
+  </si>
+  <si>
+    <t>0.29+/-0.019</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.75+/-0.016</t>
+  </si>
+  <si>
+    <t>0.582+/-0.028</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.841+/-0.004</t>
+  </si>
+  <si>
+    <t>0.738+/-0.022</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>1.539+/-0.044</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.876+/-0.004</t>
+  </si>
+  <si>
+    <t>0.683+/-0.0</t>
+  </si>
+  <si>
+    <t>0.905+/-0.007</t>
+  </si>
+  <si>
+    <t>0.412+/-0.03</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.841+/-0.005</t>
+  </si>
+  <si>
+    <t>0.339+/-0.038</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.951+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.025</t>
   </si>
   <si>
     <t>0.64</t>
   </si>
   <si>
-    <t>0.72+/-0.005</t>
-  </si>
-  <si>
-    <t>0.696+/-0.013</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.772+/-0.004</t>
-  </si>
-  <si>
-    <t>0.749+/-0.013</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.809+/-0.012</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.894+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.869+/-0.004</t>
-  </si>
-  <si>
-    <t>0.823+/-0.011</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.928+/-0.002</t>
-  </si>
-  <si>
-    <t>0.882+/-0.007</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>10.366+/-0.046</t>
-  </si>
-  <si>
-    <t>0.809+/-0.002</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>0.818+/-0.003</t>
-  </si>
-  <si>
-    <t>0.808+/-0.012</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.794+/-0.004</t>
-  </si>
-  <si>
-    <t>0.786+/-0.011</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>2.108+/-0.022</t>
-  </si>
-  <si>
-    <t>0.904+/-0.002</t>
-  </si>
-  <si>
-    <t>0.886+/-0.0</t>
-  </si>
-  <si>
-    <t>0.828</t>
-  </si>
-  <si>
-    <t>0.936+/-0.002</t>
-  </si>
-  <si>
-    <t>0.918+/-0.007</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.868+/-0.003</t>
-  </si>
-  <si>
-    <t>0.847+/-0.01</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>8.347+/-0.056</t>
-  </si>
-  <si>
-    <t>0.756+/-0.004</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.752+/-0.005</t>
-  </si>
-  <si>
-    <t>0.729+/-0.016</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.763+/-0.008</t>
-  </si>
-  <si>
-    <t>0.738+/-0.007</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.788+/-0.009</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.877+/-0.002</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.907+/-0.004</t>
-  </si>
-  <si>
-    <t>0.788+/-0.02</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.84+/-0.005</t>
-  </si>
-  <si>
-    <t>0.712+/-0.023</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>6.934+/-0.041</t>
-  </si>
-  <si>
-    <t>0.707+/-0.004</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.737+/-0.006</t>
-  </si>
-  <si>
-    <t>0.72+/-0.021</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.645+/-0.005</t>
-  </si>
-  <si>
-    <t>0.632+/-0.025</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>1.499+/-0.01</t>
-  </si>
-  <si>
-    <t>0.819+/-0.002</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.914+/-0.004</t>
-  </si>
-  <si>
-    <t>0.873+/-0.008</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.705+/-0.003</t>
-  </si>
-  <si>
-    <t>0.665+/-0.02</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>6.251+/-0.025</t>
-  </si>
-  <si>
-    <t>0.683+/-0.003</t>
+    <t>11.675+/-0.223</t>
+  </si>
+  <si>
+    <t>0.71+/-0.005</t>
+  </si>
+  <si>
+    <t>0.658+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.739+/-0.006</t>
+  </si>
+  <si>
+    <t>0.384+/-0.024</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.648+/-0.007</t>
+  </si>
+  <si>
+    <t>0.389+/-0.027</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.783+/-0.002</t>
+  </si>
+  <si>
+    <t>0.609+/-0.02</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>2.385+/-0.05</t>
+  </si>
+  <si>
+    <t>0.818+/-0.002</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.913+/-0.004</t>
+  </si>
+  <si>
+    <t>0.467+/-0.037</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.703+/-0.005</t>
+  </si>
+  <si>
+    <t>0.226+/-0.031</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.892+/-0.001</t>
+  </si>
+  <si>
+    <t>0.616+/-0.019</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>9.5+/-0.083</t>
+  </si>
+  <si>
+    <t>0.691+/-0.005</t>
+  </si>
+  <si>
+    <t>0.598+/-0.0</t>
+  </si>
+  <si>
+    <t>0.684+/-0.009</t>
+  </si>
+  <si>
+    <t>0.354+/-0.018</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.71+/-0.012</t>
+  </si>
+  <si>
+    <t>0.543+/-0.026</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.762+/-0.004</t>
+  </si>
+  <si>
+    <t>0.617+/-0.021</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>1.172+/-0.041</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.863+/-0.005</t>
   </si>
   <si>
     <t>0.637+/-0.0</t>
   </si>
   <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.881+/-0.008</t>
+  </si>
+  <si>
+    <t>0.4+/-0.026</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.84+/-0.008</t>
+  </si>
+  <si>
+    <t>0.354+/-0.026</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.944+/-0.002</t>
+  </si>
+  <si>
+    <t>0.596+/-0.02</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>12.997+/-0.103</t>
+  </si>
+  <si>
+    <t>0.692+/-0.003</t>
+  </si>
+  <si>
+    <t>0.627+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.719+/-0.004</t>
+  </si>
+  <si>
+    <t>0.392+/-0.016</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.629+/-0.006</t>
+  </si>
+  <si>
+    <t>0.381+/-0.015</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>0.761+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.014</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>2.506+/-0.037</t>
+  </si>
+  <si>
+    <t>0.8+/-0.002</t>
+  </si>
+  <si>
+    <t>0.673+/-0.0</t>
+  </si>
+  <si>
+    <t>0.901+/-0.007</t>
+  </si>
+  <si>
+    <t>0.436+/-0.044</t>
+  </si>
+  <si>
+    <t>0.674+/-0.006</t>
+  </si>
+  <si>
+    <t>0.211+/-0.023</t>
+  </si>
+  <si>
+    <t>0.878+/-0.001</t>
+  </si>
+  <si>
+    <t>0.594+/-0.018</t>
+  </si>
+  <si>
     <t>0.612</t>
   </si>
   <si>
-    <t>0.68+/-0.003</t>
-  </si>
-  <si>
-    <t>0.634+/-0.014</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.689+/-0.007</t>
-  </si>
-  <si>
-    <t>0.646+/-0.022</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.612+/-0.019</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.876+/-0.007</t>
-  </si>
-  <si>
-    <t>0.746+/-0.014</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>0.835+/-0.003</t>
-  </si>
-  <si>
-    <t>0.697+/-0.019</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>7.897+/-0.124</t>
-  </si>
-  <si>
-    <t>0.693+/-0.004</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.725+/-0.005</t>
-  </si>
-  <si>
-    <t>0.705+/-0.02</t>
-  </si>
-  <si>
-    <t>0.623+/-0.008</t>
-  </si>
-  <si>
-    <t>0.61+/-0.023</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>1.517+/-0.011</t>
-  </si>
-  <si>
-    <t>0.8+/-0.003</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.903+/-0.005</t>
-  </si>
-  <si>
-    <t>0.844+/-0.016</t>
-  </si>
-  <si>
-    <t>0.468</t>
-  </si>
-  <si>
-    <t>0.671+/-0.005</t>
-  </si>
-  <si>
-    <t>0.624+/-0.028</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>6.367+/-0.024</t>
-  </si>
-  <si>
-    <t>0.685+/-0.005</t>
-  </si>
-  <si>
-    <t>0.627+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.618+/-0.014</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.724+/-0.009</t>
-  </si>
-  <si>
-    <t>0.665+/-0.022</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.699+/-0.036</t>
+    <t>9.961+/-0.089</t>
+  </si>
+  <si>
+    <t>0.687+/-0.004</t>
+  </si>
+  <si>
+    <t>0.577+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.678+/-0.008</t>
+  </si>
+  <si>
+    <t>0.37+/-0.012</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.715+/-0.013</t>
+  </si>
+  <si>
+    <t>0.53+/-0.025</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.764+/-0.003</t>
+  </si>
+  <si>
+    <t>0.596+/-0.009</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>1.253+/-0.03</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,19 +1104,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -980,19 +1124,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1000,19 +1144,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1020,19 +1164,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1040,19 +1184,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1060,19 +1204,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1080,19 +1224,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1100,19 +1244,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1120,19 +1264,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1140,19 +1284,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1190,19 +1394,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1210,19 +1414,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1230,19 +1434,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1250,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1270,19 +1474,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1290,19 +1494,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1310,19 +1514,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1330,19 +1534,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1350,19 +1554,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1370,19 +1574,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
-        <v>102</v>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,19 +1684,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1440,19 +1704,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1460,19 +1724,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1480,19 +1744,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1500,19 +1764,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1520,19 +1784,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1540,19 +1804,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1560,19 +1824,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1580,19 +1844,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1600,19 +1864,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,19 +1974,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,19 +1994,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,19 +2014,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +2054,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,19 +2074,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,19 +2094,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,19 +2114,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1810,19 +2134,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,19 +2154,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
